--- a/SweetTooth Page Customer Reviews.xlsx
+++ b/SweetTooth Page Customer Reviews.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Timestamp</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t xml:space="preserve">Kutlo Marakakgoro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Through the  SweetTooth baker </t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>It was amazing, right design as I requested, tasty and up to the standard.</t>
+  </si>
+  <si>
+    <t>Keafiwa Rantoba</t>
   </si>
 </sst>
 </file>
@@ -215,7 +227,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E5" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E6" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="5">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="How did you hear about SweetTooth Cakes? " id="2"/>
@@ -527,8 +539,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="12.0" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="5">
+        <v>46078.77172642361</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="12.0" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
